--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -3,18 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D258F49-4B63-423E-B358-916C504CA936}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64199D-6342-40FF-81D0-736C421797B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="timesheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -169,6 +174,12 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -196,12 +207,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -219,10 +224,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE294A5-F62E-45A1-B37F-02DD42543A1E}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
   <autoFilter ref="A1:D20" xr:uid="{3AD5AFDE-14FB-4006-AC28-6B523E1283DF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A3C97C70-C93C-4367-B137-F46CCB8B32D8}" name="#" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{69454EA2-1F03-40F6-A6D3-2C4220D85B70}" name="Description" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C7AD94DB-F387-44CB-BA7C-08236266F3AF}" name="Required Hours" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{3342BD59-DD61-443C-A0CB-D11FDBE0BED7}" name="Status" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A3C97C70-C93C-4367-B137-F46CCB8B32D8}" name="#" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{69454EA2-1F03-40F6-A6D3-2C4220D85B70}" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C7AD94DB-F387-44CB-BA7C-08236266F3AF}" name="Required Hours" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{3342BD59-DD61-443C-A0CB-D11FDBE0BED7}" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -232,8 +237,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E304D00-99B6-435E-A7B8-87C008A3642D}" name="Table2" displayName="Table2" ref="A1:C36" totalsRowShown="0">
   <autoFilter ref="A1:C36" xr:uid="{9BB18590-FA92-47CD-859E-998555CCC15E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5897D1A-2730-4F6F-9165-629E0A5D5047}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3A155321-68D5-428C-A13C-7D6B321E08E9}" name="Date" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{B5897D1A-2730-4F6F-9165-629E0A5D5047}" name="#" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3A155321-68D5-428C-A13C-7D6B321E08E9}" name="Date" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{35D67168-42E1-4831-B1AF-33BF311183AA}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -506,18 +511,18 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
+    <col min="1" max="1" width="7.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -531,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -545,7 +550,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -556,7 +561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -564,10 +569,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -578,7 +583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -589,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -600,7 +605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -611,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -622,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -633,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -644,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -655,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -663,10 +668,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -677,7 +682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -688,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -699,7 +704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -710,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -721,7 +726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="38.4" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -732,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -758,14 +763,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -776,7 +781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -3,30 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB64199D-6342-40FF-81D0-736C421797B6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759784E-EBD6-45BE-A914-21E218BC83ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="timesheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Required Hours</t>
   </si>
@@ -150,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -167,6 +162,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,19 +508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A7:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="5"/>
+    <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -536,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -550,7 +548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -560,8 +558,11 @@
       <c r="C3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -569,10 +570,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -583,7 +584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -594,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -605,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -616,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -627,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -638,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -649,7 +650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -660,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -668,10 +669,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -682,7 +683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -693,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -704,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -715,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -726,7 +727,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="38.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -737,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
@@ -757,20 +758,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12CED8-74CC-46D4-9B48-AAB1022BBF9A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="62.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -781,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -790,6 +791,17 @@
       </c>
       <c r="C2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43522</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759784E-EBD6-45BE-A914-21E218BC83ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="13845"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
     <sheet name="timesheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Required Hours</t>
   </si>
@@ -96,12 +95,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>XAML vs Code and Xamarin Forms Pages.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +199,6 @@
         <sz val="12"/>
         <color rgb="FF24292E"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -219,25 +220,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AE294A5-F62E-45A1-B37F-02DD42543A1E}" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
-  <autoFilter ref="A1:D20" xr:uid="{3AD5AFDE-14FB-4006-AC28-6B523E1283DF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D20" totalsRowShown="0">
+  <autoFilter ref="A1:D20"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A3C97C70-C93C-4367-B137-F46CCB8B32D8}" name="#" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{69454EA2-1F03-40F6-A6D3-2C4220D85B70}" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C7AD94DB-F387-44CB-BA7C-08236266F3AF}" name="Required Hours" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{3342BD59-DD61-443C-A0CB-D11FDBE0BED7}" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Required Hours" dataDxfId="3"/>
+    <tableColumn id="4" name="Status" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7E304D00-99B6-435E-A7B8-87C008A3642D}" name="Table2" displayName="Table2" ref="A1:C36" totalsRowShown="0">
-  <autoFilter ref="A1:C36" xr:uid="{9BB18590-FA92-47CD-859E-998555CCC15E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C36" totalsRowShown="0">
+  <autoFilter ref="A1:C36"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B5897D1A-2730-4F6F-9165-629E0A5D5047}" name="#" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3A155321-68D5-428C-A13C-7D6B321E08E9}" name="Date" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{35D67168-42E1-4831-B1AF-33BF311183AA}" name="Description"/>
+    <tableColumn id="1" name="#" dataDxfId="1"/>
+    <tableColumn id="2" name="Date" dataDxfId="0"/>
+    <tableColumn id="4" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,11 +506,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A7:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,6 +573,9 @@
       <c r="C4" s="5">
         <v>4</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -582,6 +586,9 @@
       </c>
       <c r="C5" s="5">
         <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -757,11 +764,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA12CED8-74CC-46D4-9B48-AAB1022BBF9A}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,6 +811,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43523</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
